--- a/ingredients.xlsx
+++ b/ingredients.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D796AF-91EC-4E99-A693-D5357874EB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBCB756-8B44-4573-B471-9FA7F5CF01E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15825" yWindow="4305" windowWidth="21810" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16800" yWindow="3840" windowWidth="21810" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingredients" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="319">
   <si>
     <t>ingred_dreugh_wax_01</t>
   </si>
@@ -803,6 +803,189 @@
   </si>
   <si>
     <t>0.0</t>
+  </si>
+  <si>
+    <t>Effect 1</t>
+  </si>
+  <si>
+    <t>Effect 2</t>
+  </si>
+  <si>
+    <t>Effect 3</t>
+  </si>
+  <si>
+    <t>Effect 4</t>
+  </si>
+  <si>
+    <t>Restore Fatigue</t>
+  </si>
+  <si>
+    <t>Drain Fatigue</t>
+  </si>
+  <si>
+    <t>Burden</t>
+  </si>
+  <si>
+    <t>Drain Attribute</t>
+  </si>
+  <si>
+    <t>Fortify Attribute</t>
+  </si>
+  <si>
+    <t>Water Walking</t>
+  </si>
+  <si>
+    <t>Resist Magicka</t>
+  </si>
+  <si>
+    <t>Restore Attribute</t>
+  </si>
+  <si>
+    <t>Drain Magicka</t>
+  </si>
+  <si>
+    <t>Blind</t>
+  </si>
+  <si>
+    <t>Cure Paralyzation</t>
+  </si>
+  <si>
+    <t>Restore Magicka</t>
+  </si>
+  <si>
+    <t>Fortify Magicka</t>
+  </si>
+  <si>
+    <t>Drain Health</t>
+  </si>
+  <si>
+    <t>Resist Frost</t>
+  </si>
+  <si>
+    <t>Resist Fire</t>
+  </si>
+  <si>
+    <t>Paralyze</t>
+  </si>
+  <si>
+    <t>Drain Skill</t>
+  </si>
+  <si>
+    <t>Resist Paralysis</t>
+  </si>
+  <si>
+    <t>Fortify Health</t>
+  </si>
+  <si>
+    <t>Resist Poison</t>
+  </si>
+  <si>
+    <t>Spell Absorption</t>
+  </si>
+  <si>
+    <t>Restore Health</t>
+  </si>
+  <si>
+    <t>Damage Health</t>
+  </si>
+  <si>
+    <t>Water Breathing</t>
+  </si>
+  <si>
+    <t>Dispel</t>
+  </si>
+  <si>
+    <t>Weakness to Poison</t>
+  </si>
+  <si>
+    <t>Frost Shield</t>
+  </si>
+  <si>
+    <t>Reflect</t>
+  </si>
+  <si>
+    <t>Telekinesis</t>
+  </si>
+  <si>
+    <t>Detect Animal</t>
+  </si>
+  <si>
+    <t>Cure Blight Disease</t>
+  </si>
+  <si>
+    <t>Detect Key</t>
+  </si>
+  <si>
+    <t>Detect Enchantment</t>
+  </si>
+  <si>
+    <t>Resist Common Disease</t>
+  </si>
+  <si>
+    <t>Levitate</t>
+  </si>
+  <si>
+    <t>Night Eye</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Cure Poison</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Swift Swim</t>
+  </si>
+  <si>
+    <t>Damage Magicka</t>
+  </si>
+  <si>
+    <t>Fire Shield</t>
+  </si>
+  <si>
+    <t>Fortify Fatigue</t>
+  </si>
+  <si>
+    <t>Cure Common Disease</t>
+  </si>
+  <si>
+    <t>Frost Damage</t>
+  </si>
+  <si>
+    <t>Invisibility</t>
+  </si>
+  <si>
+    <t>Lightning Shield</t>
+  </si>
+  <si>
+    <t>Resist Shock</t>
+  </si>
+  <si>
+    <t>Feather</t>
+  </si>
+  <si>
+    <t>Damage Fatigue</t>
+  </si>
+  <si>
+    <t>Damage Attribute</t>
+  </si>
+  <si>
+    <t>Vampirism</t>
+  </si>
+  <si>
+    <t>Lightning Shied</t>
+  </si>
+  <si>
+    <t>Fortify Attack</t>
+  </si>
+  <si>
+    <t>Weakness to Fire</t>
+  </si>
+  <si>
+    <t>Fortify Maximum Magicka</t>
   </si>
 </sst>
 </file>
@@ -874,7 +1057,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="21">
     <dxf>
       <font>
         <b val="0"/>
@@ -892,13 +1075,27 @@
         <family val="2"/>
         <scheme val="major"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
-        <i val="0"/>
+        <i/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
@@ -912,14 +1109,7 @@
         <family val="2"/>
         <scheme val="major"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -977,44 +1167,6 @@
         <scheme val="major"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1111,6 +1263,204 @@
         <scheme val="major"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1134,19 +1484,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{93B4906C-6BAD-41C8-9E44-BE29C49F73C5}" name="Ingredients" displayName="Ingredients" ref="B1:F127" headerRowDxfId="6" dataDxfId="7">
-  <autoFilter ref="B1:F127" xr:uid="{93B4906C-6BAD-41C8-9E44-BE29C49F73C5}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F127">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{93B4906C-6BAD-41C8-9E44-BE29C49F73C5}" name="Ingredients" displayName="Ingredients" ref="B1:J127" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
+  <autoFilter ref="B1:J127" xr:uid="{93B4906C-6BAD-41C8-9E44-BE29C49F73C5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J127">
     <sortCondition ref="B1:B127"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{36005F1F-FC2C-4936-A35C-051B4908DD7D}" name="Morrowind" totalsRowLabel="Total" dataDxfId="11" totalsRowDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{05CE57A8-D529-4039-9903-D62DAD8C3F38}" name="OpenMW/TES3MP" dataDxfId="0" totalsRowDxfId="2">
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{36005F1F-FC2C-4936-A35C-051B4908DD7D}" name="Morrowind" totalsRowLabel="Total" dataDxfId="11" totalsRowDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{05CE57A8-D529-4039-9903-D62DAD8C3F38}" name="OpenMW/TES3MP" dataDxfId="10" totalsRowDxfId="19">
       <calculatedColumnFormula>LOWER(Ingredients[[#This Row],[Morrowind]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00AE92E2-BA28-4C52-AFD0-395FB4FC2F3E}" name="Name" dataDxfId="10" totalsRowDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{74A26A44-105E-4DB9-B162-6CDFF5D1C179}" name="Weight" dataDxfId="9" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{FAA2925C-89AB-417D-ABEB-BA56A1CED18B}" name="Value" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00AE92E2-BA28-4C52-AFD0-395FB4FC2F3E}" name="Name" dataDxfId="9" totalsRowDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{74A26A44-105E-4DB9-B162-6CDFF5D1C179}" name="Weight" dataDxfId="8" totalsRowDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{FAA2925C-89AB-417D-ABEB-BA56A1CED18B}" name="Value" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{21A9D01F-F780-40C2-ABA9-5540D23A252E}" name="Effect 1" dataDxfId="6" totalsRowDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{83320CA4-285C-4CBC-A880-7C8187E77C6A}" name="Effect 2" dataDxfId="5" totalsRowDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{3F5C14D6-9E3B-4D04-8B12-3CB3ABFCD8A2}" name="Effect 3" dataDxfId="4" totalsRowDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{C87963DF-E779-4BFA-AC0D-947FF1F8DB68}" name="Effect 4" dataDxfId="3" totalsRowDxfId="12"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1423,11 +1777,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
     <col min="2" max="3" width="32.140625" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" customWidth="1"/>
-    <col min="5" max="6" width="28.5703125" customWidth="1"/>
-    <col min="7" max="10" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1447,9 +1805,19 @@
       <c r="F1" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="I1" s="4"/>
-      <c r="K1" s="1"/>
+      <c r="G1" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1469,8 +1837,12 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1491,8 +1863,18 @@
       <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1513,8 +1895,16 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1535,8 +1925,16 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1557,8 +1955,16 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1579,8 +1985,16 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1601,8 +2015,16 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1623,8 +2045,16 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1645,8 +2075,16 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1667,8 +2105,18 @@
       <c r="F11" s="1">
         <v>300</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1689,8 +2137,18 @@
       <c r="F12" s="1">
         <v>5</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1711,8 +2169,18 @@
       <c r="F13" s="1">
         <v>25</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1733,8 +2201,18 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1755,8 +2233,18 @@
       <c r="F15" s="1">
         <v>2</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1777,8 +2265,18 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1799,8 +2297,18 @@
       <c r="F17" s="1">
         <v>23</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1821,8 +2329,18 @@
       <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1843,8 +2361,18 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1865,8 +2393,18 @@
       <c r="F20" s="1">
         <v>2</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1887,8 +2425,18 @@
       <c r="F21" s="1">
         <v>5</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1909,8 +2457,18 @@
       <c r="F22" s="1">
         <v>5</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1931,8 +2489,18 @@
       <c r="F23" s="1">
         <v>5</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1953,8 +2521,18 @@
       <c r="F24" s="1">
         <v>2</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1975,8 +2553,18 @@
       <c r="F25" s="1">
         <v>2</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1997,8 +2585,18 @@
       <c r="F26" s="1">
         <v>5</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2019,8 +2617,18 @@
       <c r="F27" s="1">
         <v>25</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2041,8 +2649,18 @@
       <c r="F28" s="1">
         <v>2</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2063,8 +2681,18 @@
       <c r="F29" s="1">
         <v>2</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2085,8 +2713,12 @@
       <c r="F30" s="1">
         <v>1</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2107,8 +2739,12 @@
       <c r="F31" s="1">
         <v>1</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2129,8 +2765,12 @@
       <c r="F32" s="1">
         <v>1</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H32" s="1"/>
       <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2151,8 +2791,18 @@
       <c r="F33" s="1">
         <v>1</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2173,8 +2823,18 @@
       <c r="F34" s="1">
         <v>2</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2195,8 +2855,16 @@
       <c r="F35" s="1">
         <v>1</v>
       </c>
-      <c r="G35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2217,8 +2885,18 @@
       <c r="F36" s="1">
         <v>5</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2239,8 +2917,18 @@
       <c r="F37" s="1">
         <v>50</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2261,8 +2949,18 @@
       <c r="F38" s="1">
         <v>1</v>
       </c>
-      <c r="G38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2283,8 +2981,18 @@
       <c r="F39" s="1">
         <v>200</v>
       </c>
-      <c r="G39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2305,8 +3013,18 @@
       <c r="F40" s="1">
         <v>250</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2327,8 +3045,18 @@
       <c r="F41" s="1">
         <v>150</v>
       </c>
-      <c r="G41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2349,8 +3077,18 @@
       <c r="F42" s="1">
         <v>100</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2371,8 +3109,18 @@
       <c r="F43" s="1">
         <v>200</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2393,8 +3141,18 @@
       <c r="F44" s="1">
         <v>200</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2415,8 +3173,18 @@
       <c r="F45" s="1">
         <v>200</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2437,8 +3205,18 @@
       <c r="F46" s="1">
         <v>200</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2459,8 +3237,18 @@
       <c r="F47" s="1">
         <v>250</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2481,8 +3269,18 @@
       <c r="F48" s="1">
         <v>100</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2503,8 +3301,18 @@
       <c r="F49" s="1">
         <v>7</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2525,8 +3333,18 @@
       <c r="F50" s="1">
         <v>10</v>
       </c>
-      <c r="G50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2547,8 +3365,18 @@
       <c r="F51" s="1">
         <v>150</v>
       </c>
-      <c r="G51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2569,8 +3397,18 @@
       <c r="F52" s="1">
         <v>50</v>
       </c>
-      <c r="G52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2591,8 +3429,18 @@
       <c r="F53" s="1">
         <v>15</v>
       </c>
-      <c r="G53" s="1"/>
-      <c r="I53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -2613,8 +3461,18 @@
       <c r="F54" s="1">
         <v>15</v>
       </c>
-      <c r="G54" s="1"/>
-      <c r="I54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -2635,8 +3493,18 @@
       <c r="F55" s="1">
         <v>2</v>
       </c>
-      <c r="G55" s="1"/>
-      <c r="I55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -2657,8 +3525,18 @@
       <c r="F56" s="1">
         <v>100</v>
       </c>
-      <c r="G56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="K56" s="1"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -2679,8 +3557,18 @@
       <c r="F57" s="1">
         <v>75</v>
       </c>
-      <c r="G57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="K57" s="1"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -2701,8 +3589,16 @@
       <c r="F58" s="1">
         <v>150</v>
       </c>
-      <c r="G58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -2723,8 +3619,18 @@
       <c r="F59" s="1">
         <v>5</v>
       </c>
-      <c r="G59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="K59" s="1"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -2745,8 +3651,18 @@
       <c r="F60" s="1">
         <v>5</v>
       </c>
-      <c r="G60" s="1"/>
-      <c r="I60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="K60" s="1"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -2767,8 +3683,18 @@
       <c r="F61" s="1">
         <v>1</v>
       </c>
-      <c r="G61" s="1"/>
-      <c r="I61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="K61" s="1"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -2789,8 +3715,18 @@
       <c r="F62" s="1">
         <v>1</v>
       </c>
-      <c r="G62" s="1"/>
-      <c r="I62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="K62" s="1"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -2811,8 +3747,18 @@
       <c r="F63" s="1">
         <v>5</v>
       </c>
-      <c r="G63" s="1"/>
-      <c r="I63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="K63" s="1"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -2833,8 +3779,18 @@
       <c r="F64" s="1">
         <v>1</v>
       </c>
-      <c r="G64" s="1"/>
-      <c r="I64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="K64" s="1"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -2855,8 +3811,18 @@
       <c r="F65" s="1">
         <v>5</v>
       </c>
-      <c r="G65" s="1"/>
-      <c r="I65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="K65" s="1"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -2877,8 +3843,18 @@
       <c r="F66" s="1">
         <v>5</v>
       </c>
-      <c r="G66" s="1"/>
-      <c r="I66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="K66" s="1"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -2899,8 +3875,18 @@
       <c r="F67" s="1">
         <v>5</v>
       </c>
-      <c r="G67" s="1"/>
-      <c r="I67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="K67" s="1"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -2921,8 +3907,18 @@
       <c r="F68" s="1">
         <v>30</v>
       </c>
-      <c r="G68" s="1"/>
-      <c r="I68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="K68" s="1"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -2943,8 +3939,18 @@
       <c r="F69" s="1">
         <v>200</v>
       </c>
-      <c r="G69" s="1"/>
-      <c r="I69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="K69" s="1"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -2965,8 +3971,18 @@
       <c r="F70" s="1">
         <v>1</v>
       </c>
-      <c r="G70" s="1"/>
-      <c r="I70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="K70" s="1"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -2987,8 +4003,18 @@
       <c r="F71" s="1">
         <v>5</v>
       </c>
-      <c r="G71" s="1"/>
-      <c r="I71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="K71" s="1"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3009,8 +4035,18 @@
       <c r="F72" s="1">
         <v>5</v>
       </c>
-      <c r="G72" s="1"/>
-      <c r="I72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -3031,8 +4067,18 @@
       <c r="F73" s="1">
         <v>1</v>
       </c>
-      <c r="G73" s="1"/>
-      <c r="I73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="K73" s="1"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3053,8 +4099,18 @@
       <c r="F74" s="1">
         <v>2</v>
       </c>
-      <c r="G74" s="1"/>
-      <c r="I74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="K74" s="1"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3075,8 +4131,16 @@
       <c r="F75" s="1">
         <v>1</v>
       </c>
-      <c r="G75" s="1"/>
-      <c r="I75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3097,8 +4161,18 @@
       <c r="F76" s="1">
         <v>10</v>
       </c>
-      <c r="G76" s="1"/>
-      <c r="I76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="K76" s="1"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3119,8 +4193,18 @@
       <c r="F77" s="1">
         <v>2</v>
       </c>
-      <c r="G77" s="1"/>
-      <c r="I77" s="1"/>
+      <c r="G77" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="K77" s="1"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3141,8 +4225,18 @@
       <c r="F78" s="1">
         <v>1</v>
       </c>
-      <c r="G78" s="1"/>
-      <c r="I78" s="1"/>
+      <c r="G78" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="K78" s="1"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3163,8 +4257,18 @@
       <c r="F79" s="1">
         <v>2</v>
       </c>
-      <c r="G79" s="1"/>
-      <c r="I79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="K79" s="1"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -3185,8 +4289,18 @@
       <c r="F80" s="1">
         <v>1</v>
       </c>
-      <c r="G80" s="1"/>
-      <c r="I80" s="1"/>
+      <c r="G80" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="K80" s="1"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -3207,8 +4321,18 @@
       <c r="F81" s="1">
         <v>1</v>
       </c>
-      <c r="G81" s="1"/>
-      <c r="I81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="K81" s="1"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -3229,8 +4353,18 @@
       <c r="F82" s="1">
         <v>1</v>
       </c>
-      <c r="G82" s="1"/>
-      <c r="I82" s="1"/>
+      <c r="G82" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="K82" s="1"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -3251,8 +4385,18 @@
       <c r="F83" s="1">
         <v>50</v>
       </c>
-      <c r="G83" s="1"/>
-      <c r="I83" s="1"/>
+      <c r="G83" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="K83" s="1"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -3273,8 +4417,18 @@
       <c r="F84" s="1">
         <v>1</v>
       </c>
-      <c r="G84" s="1"/>
-      <c r="I84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="K84" s="1"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -3295,8 +4449,18 @@
       <c r="F85" s="1">
         <v>1</v>
       </c>
-      <c r="G85" s="1"/>
-      <c r="I85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="K85" s="1"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -3317,8 +4481,18 @@
       <c r="F86" s="1">
         <v>1</v>
       </c>
-      <c r="G86" s="1"/>
-      <c r="I86" s="1"/>
+      <c r="G86" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="K86" s="1"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -3339,8 +4513,18 @@
       <c r="F87" s="1">
         <v>1</v>
       </c>
-      <c r="G87" s="1"/>
-      <c r="I87" s="1"/>
+      <c r="G87" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="K87" s="1"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -3361,8 +4545,18 @@
       <c r="F88" s="1">
         <v>100</v>
       </c>
-      <c r="G88" s="1"/>
-      <c r="I88" s="1"/>
+      <c r="G88" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="K88" s="1"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -3383,8 +4577,14 @@
       <c r="F89" s="1">
         <v>20</v>
       </c>
-      <c r="G89" s="1"/>
+      <c r="G89" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>297</v>
+      </c>
       <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -3405,8 +4605,18 @@
       <c r="F90" s="1">
         <v>1</v>
       </c>
-      <c r="G90" s="1"/>
-      <c r="I90" s="1"/>
+      <c r="G90" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="K90" s="1"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -3427,8 +4637,18 @@
       <c r="F91" s="1">
         <v>200</v>
       </c>
-      <c r="G91" s="1"/>
-      <c r="I91" s="1"/>
+      <c r="G91" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="K91" s="1"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -3449,8 +4669,18 @@
       <c r="F92" s="1">
         <v>200</v>
       </c>
-      <c r="G92" s="1"/>
-      <c r="I92" s="1"/>
+      <c r="G92" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="K92" s="1"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -3471,8 +4701,18 @@
       <c r="F93" s="1">
         <v>200</v>
       </c>
-      <c r="G93" s="1"/>
-      <c r="I93" s="1"/>
+      <c r="G93" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="K93" s="1"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -3493,8 +4733,18 @@
       <c r="F94" s="1">
         <v>300</v>
       </c>
-      <c r="G94" s="1"/>
-      <c r="I94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="K94" s="1"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -3515,8 +4765,18 @@
       <c r="F95" s="1">
         <v>25</v>
       </c>
-      <c r="G95" s="1"/>
-      <c r="I95" s="1"/>
+      <c r="G95" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="K95" s="1"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -3537,8 +4797,18 @@
       <c r="F96" s="1">
         <v>10</v>
       </c>
-      <c r="G96" s="1"/>
-      <c r="I96" s="1"/>
+      <c r="G96" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="K96" s="1"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -3559,8 +4829,18 @@
       <c r="F97" s="1">
         <v>1</v>
       </c>
-      <c r="G97" s="1"/>
-      <c r="I97" s="1"/>
+      <c r="G97" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="K97" s="1"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -3581,8 +4861,18 @@
       <c r="F98" s="1">
         <v>200</v>
       </c>
-      <c r="G98" s="1"/>
-      <c r="I98" s="1"/>
+      <c r="G98" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="K98" s="1"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -3603,8 +4893,16 @@
       <c r="F99" s="1">
         <v>1</v>
       </c>
-      <c r="G99" s="1"/>
-      <c r="I99" s="1"/>
+      <c r="G99" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J99" s="1"/>
       <c r="K99" s="1"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -3625,8 +4923,18 @@
       <c r="F100" s="1">
         <v>1</v>
       </c>
-      <c r="G100" s="1"/>
-      <c r="I100" s="1"/>
+      <c r="G100" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="K100" s="1"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -3647,8 +4955,18 @@
       <c r="F101" s="1">
         <v>2</v>
       </c>
-      <c r="G101" s="1"/>
-      <c r="I101" s="1"/>
+      <c r="G101" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="K101" s="1"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -3669,8 +4987,18 @@
       <c r="F102" s="1">
         <v>10</v>
       </c>
-      <c r="G102" s="1"/>
-      <c r="I102" s="1"/>
+      <c r="G102" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="K102" s="1"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -3691,8 +5019,18 @@
       <c r="F103" s="1">
         <v>2</v>
       </c>
-      <c r="G103" s="1"/>
-      <c r="I103" s="1"/>
+      <c r="G103" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="K103" s="1"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -3713,8 +5051,18 @@
       <c r="F104" s="1">
         <v>20</v>
       </c>
-      <c r="G104" s="1"/>
-      <c r="I104" s="1"/>
+      <c r="G104" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="K104" s="1"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -3735,8 +5083,18 @@
       <c r="F105" s="1">
         <v>1</v>
       </c>
-      <c r="G105" s="1"/>
-      <c r="I105" s="1"/>
+      <c r="G105" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="K105" s="1"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -3757,8 +5115,18 @@
       <c r="F106" s="1">
         <v>10</v>
       </c>
-      <c r="G106" s="1"/>
-      <c r="I106" s="1"/>
+      <c r="G106" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="K106" s="1"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -3779,8 +5147,18 @@
       <c r="F107" s="1">
         <v>10</v>
       </c>
-      <c r="G107" s="1"/>
-      <c r="I107" s="1"/>
+      <c r="G107" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="K107" s="1"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -3801,8 +5179,18 @@
       <c r="F108" s="1">
         <v>5</v>
       </c>
-      <c r="G108" s="1"/>
-      <c r="I108" s="1"/>
+      <c r="G108" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="K108" s="1"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -3823,8 +5211,18 @@
       <c r="F109" s="1">
         <v>10</v>
       </c>
-      <c r="G109" s="1"/>
-      <c r="I109" s="1"/>
+      <c r="G109" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="K109" s="1"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -3845,8 +5243,18 @@
       <c r="F110" s="1">
         <v>50</v>
       </c>
-      <c r="G110" s="1"/>
-      <c r="I110" s="1"/>
+      <c r="G110" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="K110" s="1"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -3867,8 +5275,18 @@
       <c r="F111" s="1">
         <v>50</v>
       </c>
-      <c r="G111" s="1"/>
-      <c r="I111" s="1"/>
+      <c r="G111" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="K111" s="1"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -3889,8 +5307,18 @@
       <c r="F112" s="1">
         <v>2</v>
       </c>
-      <c r="G112" s="1"/>
-      <c r="I112" s="1"/>
+      <c r="G112" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="K112" s="1"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -3911,8 +5339,18 @@
       <c r="F113" s="1">
         <v>2</v>
       </c>
-      <c r="G113" s="1"/>
-      <c r="I113" s="1"/>
+      <c r="G113" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="K113" s="1"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -3933,8 +5371,18 @@
       <c r="F114" s="1">
         <v>1</v>
       </c>
-      <c r="G114" s="1"/>
-      <c r="I114" s="1"/>
+      <c r="G114" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="K114" s="1"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -3955,8 +5403,18 @@
       <c r="F115" s="1">
         <v>1</v>
       </c>
-      <c r="G115" s="1"/>
-      <c r="I115" s="1"/>
+      <c r="G115" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="K115" s="1"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -3977,8 +5435,18 @@
       <c r="F116" s="1">
         <v>1</v>
       </c>
-      <c r="G116" s="1"/>
-      <c r="I116" s="1"/>
+      <c r="G116" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="K116" s="1"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -3999,8 +5467,18 @@
       <c r="F117" s="1">
         <v>10</v>
       </c>
-      <c r="G117" s="1"/>
-      <c r="I117" s="1"/>
+      <c r="G117" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="K117" s="1"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -4021,8 +5499,18 @@
       <c r="F118" s="1">
         <v>10</v>
       </c>
-      <c r="G118" s="1"/>
-      <c r="I118" s="1"/>
+      <c r="G118" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="K118" s="1"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -4043,8 +5531,18 @@
       <c r="F119" s="1">
         <v>300</v>
       </c>
-      <c r="G119" s="1"/>
-      <c r="I119" s="1"/>
+      <c r="G119" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="K119" s="1"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -4065,8 +5563,18 @@
       <c r="F120" s="1">
         <v>500</v>
       </c>
-      <c r="G120" s="1"/>
-      <c r="I120" s="1"/>
+      <c r="G120" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="K120" s="1"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -4087,8 +5595,18 @@
       <c r="F121" s="1">
         <v>100</v>
       </c>
-      <c r="G121" s="1"/>
-      <c r="I121" s="1"/>
+      <c r="G121" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="K121" s="1"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -4109,8 +5627,18 @@
       <c r="F122" s="1">
         <v>1</v>
       </c>
-      <c r="G122" s="1"/>
-      <c r="I122" s="1"/>
+      <c r="G122" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="K122" s="1"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -4131,8 +5659,18 @@
       <c r="F123" s="1">
         <v>10</v>
       </c>
-      <c r="G123" s="1"/>
-      <c r="I123" s="1"/>
+      <c r="G123" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="K123" s="1"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -4153,8 +5691,18 @@
       <c r="F124" s="1">
         <v>100</v>
       </c>
-      <c r="G124" s="1"/>
-      <c r="I124" s="1"/>
+      <c r="G124" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="K124" s="1"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -4175,8 +5723,18 @@
       <c r="F125" s="1">
         <v>2</v>
       </c>
-      <c r="G125" s="1"/>
-      <c r="I125" s="1"/>
+      <c r="G125" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="K125" s="1"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -4197,8 +5755,18 @@
       <c r="F126" s="1">
         <v>5</v>
       </c>
-      <c r="G126" s="1"/>
-      <c r="I126" s="1"/>
+      <c r="G126" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="K126" s="1"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -4219,8 +5787,18 @@
       <c r="F127" s="1">
         <v>0</v>
       </c>
-      <c r="G127" s="1"/>
-      <c r="I127" s="1"/>
+      <c r="G127" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="K127" s="1"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
